--- a/AsiaUndernourishment_Team1/src/sample/Excel Data/Asia_Undernourishment_Data.xlsx
+++ b/AsiaUndernourishment_Team1/src/sample/Excel Data/Asia_Undernourishment_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Software D&amp;C\.idea\AsiaUndernourishment_Team1\src\sample\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC8D997-9F7C-4A91-99B6-56A44B8B8093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B03647-6F7D-41EE-ADBE-CC7550DD812E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6390" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asia_Undernourishment_Data" sheetId="1" r:id="rId1"/>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +845,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1204,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1223,7 @@
     <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1330,7 +1336,7 @@
       <c r="M2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="18">
         <f>1400715.64+2285424.74+551098.83+6177073.18+353131.37+833203.34</f>
         <v>11600647.1</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="M3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="10">
         <v>409368.61</v>
       </c>
       <c r="O3" s="1">
@@ -1443,7 +1449,7 @@
       <c r="M4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="10">
         <v>1400715.64</v>
       </c>
       <c r="O4" s="1">
@@ -1499,7 +1505,7 @@
       <c r="M5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="18">
         <f>22119546.63+2089792.67</f>
         <v>24209339.299999997</v>
       </c>
@@ -1556,7 +1562,7 @@
       <c r="M6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="10">
         <v>60437.22</v>
       </c>
       <c r="O6" s="1">
@@ -1612,7 +1618,7 @@
       <c r="M7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="18">
         <v>2741910.26</v>
       </c>
       <c r="O7" s="1">
@@ -1665,8 +1671,8 @@
       <c r="L8" s="2">
         <v>2.5</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>62</v>
+      <c r="M8" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="N8" s="10">
         <f>72725.52+962973.78</f>
@@ -1725,7 +1731,7 @@
       <c r="M9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="10">
         <v>72725.52</v>
       </c>
       <c r="O9" s="1">
@@ -1838,7 +1844,7 @@
       <c r="M11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="10">
         <f>2089792.67+1200467.4</f>
         <v>3290260.07</v>
       </c>
@@ -1895,7 +1901,7 @@
       <c r="M12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="10">
         <f>49030.14+117765.11</f>
         <v>166795.25</v>
       </c>
@@ -1952,7 +1958,7 @@
       <c r="M13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="18">
         <f>5239495.11+7082778.93</f>
         <v>12322274.039999999</v>
       </c>
@@ -2009,7 +2015,7 @@
       <c r="M14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="10">
         <v>551098.82999999996</v>
       </c>
       <c r="O14" s="1">
@@ -2065,7 +2071,7 @@
       <c r="M15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="18">
         <f>136373229.13+30373451.29+901310.03+1673739.24+4025216.51+705474.51+2958215.72+9642786.67+13447212.72</f>
         <v>200100635.81999996</v>
       </c>
@@ -2122,7 +2128,7 @@
       <c r="M16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="10">
         <f>30373451.29+4744027.8+2341200.89+328292.8</f>
         <v>37786972.779999994</v>
       </c>
@@ -2179,7 +2185,7 @@
       <c r="M17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="10">
         <f>6177073.18+5426456.1</f>
         <v>11603529.279999999</v>
       </c>
@@ -2236,7 +2242,7 @@
       <c r="M18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="18">
         <f>409368.61+589974.47+10665179.89</f>
         <v>11664522.970000001</v>
       </c>
@@ -2293,7 +2299,7 @@
       <c r="M19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="10">
         <v>1195752.2</v>
       </c>
       <c r="O19" s="1">
@@ -2349,7 +2355,7 @@
       <c r="M20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="10">
         <f>5239495.11+12233082.49</f>
         <v>17472577.600000001</v>
       </c>
@@ -2406,7 +2412,7 @@
       <c r="M21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="10">
         <f>49030.14+1195752.2</f>
         <v>1244782.3399999999</v>
       </c>
@@ -2463,7 +2469,7 @@
       <c r="M22" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="10">
         <v>2593980.4700000002</v>
       </c>
       <c r="O22" s="1">
@@ -2519,7 +2525,7 @@
       <c r="M23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="10">
         <v>589974.47</v>
       </c>
       <c r="O23" s="1">
@@ -2575,7 +2581,7 @@
       <c r="M24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="10">
         <v>901310.03</v>
       </c>
       <c r="O24" s="1">
@@ -2631,7 +2637,7 @@
       <c r="M25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="18">
         <v>1200467.3999999999</v>
       </c>
       <c r="O25" s="1">
@@ -2687,7 +2693,7 @@
       <c r="M26" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="10">
         <f>117765.11+633033.84</f>
         <v>750798.95</v>
       </c>
@@ -2744,7 +2750,7 @@
       <c r="M27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="10">
         <f>2741910.26+1673739.24+55676.03</f>
         <v>4471325.53</v>
       </c>
@@ -2801,7 +2807,7 @@
       <c r="M28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="10">
         <f>55676.03</f>
         <v>55676.03</v>
       </c>
@@ -2858,7 +2864,7 @@
       <c r="M29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="10">
         <f>439290.86</f>
         <v>439290.86</v>
       </c>
@@ -2915,7 +2921,7 @@
       <c r="M30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="10">
         <f>60437.22+962973.78+4744027.8</f>
         <v>5767438.7999999998</v>
       </c>
@@ -2972,7 +2978,7 @@
       <c r="M31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="10">
         <v>4025216.51</v>
       </c>
       <c r="O31" s="1">
@@ -3028,7 +3034,7 @@
       <c r="M32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="10">
         <v>705474.51</v>
       </c>
       <c r="O32" s="1">
@@ -3084,7 +3090,7 @@
       <c r="M33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="18">
         <f>37623432.65+2593980.47+4623731.9</f>
         <v>44841145.019999996</v>
       </c>
@@ -3141,7 +3147,7 @@
       <c r="M34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="10">
         <f>2341200.89+12233082.49+4623731.9</f>
         <v>19198015.280000001</v>
       </c>
@@ -3198,7 +3204,7 @@
       <c r="M35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="10">
         <v>7082778.9299999997</v>
       </c>
       <c r="O35" s="1">
@@ -3254,7 +3260,7 @@
       <c r="M36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="10">
         <v>4809496.2300000004</v>
       </c>
       <c r="O36" s="1">
@@ -3310,7 +3316,7 @@
       <c r="M37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="10">
         <v>2958215.72</v>
       </c>
       <c r="O37" s="1">
@@ -3366,7 +3372,7 @@
       <c r="M38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="10">
         <v>9642786.6699999999</v>
       </c>
       <c r="O38" s="1">
@@ -3422,7 +3428,7 @@
       <c r="M39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="19">
         <f>328292.8</f>
         <v>328292.8</v>
       </c>
@@ -3479,7 +3485,7 @@
       <c r="M40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="10">
         <f>353131.37+10665179.89+633033.84</f>
         <v>11651345.1</v>
       </c>
@@ -3536,7 +3542,7 @@
       <c r="M41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="10">
         <v>833203.34</v>
       </c>
       <c r="O41" s="1">
@@ -3592,7 +3598,7 @@
       <c r="M42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="10">
         <v>1366347.66</v>
       </c>
       <c r="O42" s="1">
@@ -3648,7 +3654,7 @@
       <c r="M43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="10">
         <v>4623731.9000000004</v>
       </c>
       <c r="O43" s="1">
@@ -3704,7 +3710,7 @@
       <c r="M44" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="10">
         <v>13447212.720000001</v>
       </c>
       <c r="O44" s="1">
@@ -3760,7 +3766,7 @@
       <c r="M45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="18">
         <f>4809496.23+1366347.66+5426456.1</f>
         <v>11602299.99</v>
       </c>
